--- a/biology/Botanique/Cerisier_du_Brésil/Cerisier_du_Brésil.xlsx
+++ b/biology/Botanique/Cerisier_du_Brésil/Cerisier_du_Brésil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerisier_du_Br%C3%A9sil</t>
+          <t>Cerisier_du_Brésil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia brasiliensis
 Le cerisier du Brésil (Eugenia brasiliensis) est un arbre fruitier tropical de la famille des Myrtacées.
-Il a une croissance très lente et une capacité de dispersion réduite d'où sa rareté et son risque de disparition. Sa résistance à l'enfoncement (test de Janka) est l'une des plus fortes[2].
+Il a une croissance très lente et une capacité de dispersion réduite d'où sa rareté et son risque de disparition. Sa résistance à l'enfoncement (test de Janka) est l'une des plus fortes.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cerisier_du_Br%C3%A9sil</t>
+          <t>Cerisier_du_Brésil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La hauteur du cerisier du Brésil varie entre 15 et 20 mètres. Ses branches sont fines et cassantes et son écorce s'écaille avec le temps. Le feuillage est vert et persistant. Les fleurs sont formées de 4 sépales, 4 pétales et de longues étamines. Il produit des baies rondes, juteuses, dont la couleur varie de l'orange au violet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur du cerisier du Brésil varie entre 15 et 20 mètres. Ses branches sont fines et cassantes et son écorce s'écaille avec le temps. Le feuillage est vert et persistant. Les fleurs sont formées de 4 sépales, 4 pétales et de longues étamines. Il produit des baies rondes, juteuses, dont la couleur varie de l'orange au violet.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cerisier_du_Br%C3%A9sil</t>
+          <t>Cerisier_du_Brésil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont consommables cru ou en confiture ;
 On utilise les queues pour leurs vertus dépuratives et diurétiques ;
-Le bois est recherché par les ébénistes et charpentiers[3].
+Le bois est recherché par les ébénistes et charpentiers.
 Sur les autres projets Wikimedia :
 Cerisier du Brésil, sur Wikimedia Commons
 </t>
